--- a/solutions/sentiment-solutions.xlsx
+++ b/solutions/sentiment-solutions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\aina-foundations-of-analytics\solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\aina-foundations-of-analytics\solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5765A5F1-CD18-4653-A407-8B5F972284D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793B15D7-A09F-424E-9802-EC45C9D9B2BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
     <sheet name="analysis" sheetId="15" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="317">
   <si>
     <t>Unfortunately, the frustration of being Dr. Goldberg's patient is a repeat of the experience I've had with so many other doctors in NYC -- good doctor, terrible staff.  It seems that his staff simply never answers the phone.  It usually takes 2 hours of repeated calling to get an answer.  Who has time for that or wants to deal with it?  I have run into this problem with many other doctors and I just don't get it.  You have office workers, you have patients with medical needs, why isn't anyone answering the phone?  It's incomprehensible and not work the aggravation.  It's with regret that I feel that I have to give Dr. Goldberg 2 stars.</t>
   </si>
@@ -989,6 +989,9 @@
   </si>
   <si>
     <t>Yes there appears to be a significant relationship between # of stars given and sentiment expressed.</t>
+  </si>
+  <si>
+    <t>Also called a contingency table or confusion matrix</t>
   </si>
 </sst>
 </file>
@@ -3645,7 +3648,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C54FE974-D2F3-4671-9DF8-8F92837EA07A}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C54FE974-D2F3-4671-9DF8-8F92837EA07A}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -4042,21 +4045,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B56DA39-CFA6-4C05-81E4-95BE9E764447}">
-  <dimension ref="A3:D18"/>
+  <dimension ref="A2:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26171875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>301</v>
       </c>
@@ -4064,7 +4072,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>302</v>
       </c>
@@ -4078,7 +4086,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>305</v>
       </c>
@@ -4092,7 +4100,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>306</v>
       </c>
@@ -4106,7 +4114,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>303</v>
       </c>
@@ -4120,7 +4128,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>301</v>
       </c>
@@ -4128,7 +4136,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>302</v>
       </c>
@@ -4142,7 +4150,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>305</v>
       </c>
@@ -4158,7 +4166,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>306</v>
       </c>
@@ -4174,7 +4182,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>303</v>
       </c>
@@ -4188,13 +4196,13 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B16">
         <f>_xlfn.CHISQ.TEST(B5:C6, B12:C13)</f>
         <v>5.4975631525037098E-8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>315</v>
       </c>
@@ -4221,13 +4229,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.83984375" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>300</v>
       </c>
@@ -4247,7 +4255,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4268,7 +4276,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4289,7 +4297,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4310,7 +4318,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4331,7 +4339,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4352,7 +4360,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4373,7 +4381,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4394,7 +4402,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="230.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4415,7 +4423,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="374.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4436,7 +4444,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4457,7 +4465,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4478,7 +4486,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4499,7 +4507,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4520,7 +4528,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4541,7 +4549,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4562,7 +4570,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4583,7 +4591,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4604,7 +4612,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="360" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4625,7 +4633,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4646,7 +4654,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4667,7 +4675,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4688,7 +4696,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4709,7 +4717,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4730,7 +4738,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4751,7 +4759,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4772,7 +4780,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4793,7 +4801,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4814,7 +4822,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4835,7 +4843,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4856,7 +4864,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4877,7 +4885,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="374.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4898,7 +4906,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4919,7 +4927,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4940,7 +4948,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4961,7 +4969,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4982,7 +4990,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="316.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5003,7 +5011,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5024,7 +5032,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5045,7 +5053,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5066,7 +5074,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5087,7 +5095,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5108,7 +5116,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5129,7 +5137,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5150,7 +5158,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5171,7 +5179,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5192,7 +5200,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5213,7 +5221,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5234,7 +5242,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="216" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5255,7 +5263,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5276,7 +5284,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5297,7 +5305,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="403.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5318,7 +5326,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5339,7 +5347,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5360,7 +5368,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5381,7 +5389,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5402,7 +5410,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="316.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5423,7 +5431,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5444,7 +5452,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5465,7 +5473,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5486,7 +5494,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5507,7 +5515,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5528,7 +5536,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="345.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5549,7 +5557,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5570,7 +5578,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5591,7 +5599,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5612,7 +5620,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5633,7 +5641,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5654,7 +5662,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5675,7 +5683,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5696,7 +5704,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5717,7 +5725,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5738,7 +5746,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5759,7 +5767,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="316.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5780,7 +5788,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5801,7 +5809,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5822,7 +5830,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5843,7 +5851,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="360" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5864,7 +5872,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5885,7 +5893,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5906,7 +5914,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5927,7 +5935,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5948,7 +5956,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5969,7 +5977,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5990,7 +5998,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6011,7 +6019,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6032,7 +6040,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="405" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="331.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6053,7 +6061,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6074,7 +6082,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6095,7 +6103,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6116,7 +6124,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6137,7 +6145,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6158,7 +6166,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="360" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6179,7 +6187,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6200,7 +6208,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6221,7 +6229,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6242,7 +6250,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6263,7 +6271,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6284,7 +6292,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="360" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6305,7 +6313,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="259.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6326,7 +6334,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6347,7 +6355,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="288" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6368,7 +6376,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6389,7 +6397,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6410,7 +6418,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="259.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6431,7 +6439,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6452,7 +6460,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6473,7 +6481,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6494,7 +6502,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6515,7 +6523,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6536,7 +6544,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6557,7 +6565,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6578,7 +6586,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6599,7 +6607,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6620,7 +6628,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6641,7 +6649,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6662,7 +6670,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="405" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="345.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6683,7 +6691,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="230.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6704,7 +6712,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6725,7 +6733,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6746,7 +6754,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6767,7 +6775,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6788,7 +6796,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6809,7 +6817,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="360" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="288" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6830,7 +6838,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6851,7 +6859,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="360" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="316.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6872,7 +6880,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="316.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6893,7 +6901,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6914,7 +6922,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6935,7 +6943,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6956,7 +6964,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6977,7 +6985,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6998,7 +7006,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="388.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7019,7 +7027,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7040,7 +7048,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7061,7 +7069,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7082,7 +7090,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7103,7 +7111,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7124,7 +7132,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7145,7 +7153,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7166,7 +7174,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7187,7 +7195,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="374.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7208,7 +7216,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="360" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7229,7 +7237,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="360" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7250,7 +7258,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7271,7 +7279,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="230.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7292,7 +7300,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7313,7 +7321,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7334,7 +7342,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7355,7 +7363,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7376,7 +7384,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7397,7 +7405,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7418,7 +7426,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7439,7 +7447,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7460,7 +7468,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7481,7 +7489,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7502,7 +7510,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7523,7 +7531,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7544,7 +7552,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7565,7 +7573,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7586,7 +7594,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7607,7 +7615,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="216" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7628,7 +7636,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7649,7 +7657,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7670,7 +7678,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7691,7 +7699,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7712,7 +7720,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7733,7 +7741,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7754,7 +7762,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7775,7 +7783,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="403.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7796,7 +7804,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7817,7 +7825,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7838,7 +7846,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="316.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7859,7 +7867,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7880,7 +7888,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7901,7 +7909,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="216" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7922,7 +7930,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7943,7 +7951,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7964,7 +7972,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>178</v>
       </c>
@@ -7985,7 +7993,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8006,7 +8014,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8027,7 +8035,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8048,7 +8056,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="259.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8069,7 +8077,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8090,7 +8098,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8111,7 +8119,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="360" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8132,7 +8140,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="388.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8153,7 +8161,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8174,7 +8182,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8195,7 +8203,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8216,7 +8224,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8237,7 +8245,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8258,7 +8266,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8279,7 +8287,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8300,7 +8308,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8321,7 +8329,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8342,7 +8350,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8363,7 +8371,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8384,7 +8392,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8405,7 +8413,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8426,7 +8434,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="259.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8447,7 +8455,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="316.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8468,7 +8476,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="216" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8489,7 +8497,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="A204">
         <v>203</v>
       </c>
@@ -8510,7 +8518,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A205">
         <v>204</v>
       </c>
@@ -8531,7 +8539,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206">
         <v>205</v>
       </c>
@@ -8552,7 +8560,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="360" x14ac:dyDescent="0.55000000000000004">
       <c r="A207">
         <v>206</v>
       </c>
@@ -8573,7 +8581,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A208">
         <v>207</v>
       </c>
@@ -8594,7 +8602,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
         <v>208</v>
       </c>
@@ -8615,7 +8623,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A210">
         <v>209</v>
       </c>
@@ -8636,7 +8644,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8657,7 +8665,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A212">
         <v>211</v>
       </c>
@@ -8678,7 +8686,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A213">
         <v>212</v>
       </c>
@@ -8699,7 +8707,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A214">
         <v>213</v>
       </c>
@@ -8720,7 +8728,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A215">
         <v>214</v>
       </c>
@@ -8741,7 +8749,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="403.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
         <v>215</v>
       </c>
@@ -8762,7 +8770,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A217">
         <v>216</v>
       </c>
@@ -8783,7 +8791,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="403.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A218">
         <v>217</v>
       </c>
@@ -8804,7 +8812,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A219">
         <v>218</v>
       </c>
@@ -8825,7 +8833,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="259.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A220">
         <v>219</v>
       </c>
@@ -8846,7 +8854,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A221">
         <v>220</v>
       </c>
@@ -8867,7 +8875,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A222">
         <v>221</v>
       </c>
@@ -8888,7 +8896,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A223">
         <v>222</v>
       </c>
@@ -8909,7 +8917,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="259.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
         <v>223</v>
       </c>
@@ -8930,7 +8938,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
         <v>224</v>
       </c>
@@ -8951,7 +8959,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A226">
         <v>225</v>
       </c>
@@ -8972,7 +8980,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A227">
         <v>226</v>
       </c>
@@ -8993,7 +9001,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A228">
         <v>227</v>
       </c>
@@ -9014,7 +9022,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A229">
         <v>228</v>
       </c>
@@ -9035,7 +9043,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A230">
         <v>229</v>
       </c>
@@ -9056,7 +9064,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A231">
         <v>230</v>
       </c>
@@ -9077,7 +9085,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="331.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A232">
         <v>231</v>
       </c>
@@ -9098,7 +9106,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
         <v>232</v>
       </c>
@@ -9119,7 +9127,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="345.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A234">
         <v>233</v>
       </c>
@@ -9140,7 +9148,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A235">
         <v>234</v>
       </c>
@@ -9161,7 +9169,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A236">
         <v>235</v>
       </c>
@@ -9182,7 +9190,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="345.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A237">
         <v>236</v>
       </c>
@@ -9203,7 +9211,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A238">
         <v>237</v>
       </c>
@@ -9224,7 +9232,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A239">
         <v>238</v>
       </c>
@@ -9245,7 +9253,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="259.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A240">
         <v>239</v>
       </c>
@@ -9266,7 +9274,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A241">
         <v>240</v>
       </c>
@@ -9287,7 +9295,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="A242">
         <v>241</v>
       </c>
@@ -9308,7 +9316,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A243">
         <v>242</v>
       </c>
@@ -9329,7 +9337,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A244">
         <v>243</v>
       </c>
@@ -9350,7 +9358,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A245">
         <v>244</v>
       </c>
@@ -9371,7 +9379,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A246">
         <v>245</v>
       </c>
@@ -9392,7 +9400,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A247">
         <v>246</v>
       </c>
@@ -9413,7 +9421,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A248">
         <v>247</v>
       </c>
@@ -9434,7 +9442,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A249">
         <v>248</v>
       </c>
@@ -9455,7 +9463,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A250">
         <v>249</v>
       </c>
@@ -9476,7 +9484,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A251">
         <v>250</v>
       </c>
@@ -9497,7 +9505,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="259.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A252">
         <v>251</v>
       </c>
@@ -9518,7 +9526,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A253">
         <v>252</v>
       </c>
@@ -9539,7 +9547,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A254">
         <v>253</v>
       </c>
@@ -9560,7 +9568,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A255">
         <v>254</v>
       </c>
@@ -9581,7 +9589,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A256">
         <v>255</v>
       </c>
@@ -9602,7 +9610,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A257">
         <v>256</v>
       </c>
@@ -9623,7 +9631,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A258">
         <v>257</v>
       </c>
@@ -9644,7 +9652,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A259">
         <v>258</v>
       </c>
@@ -9665,7 +9673,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A260">
         <v>259</v>
       </c>
@@ -9686,7 +9694,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A261">
         <v>260</v>
       </c>
@@ -9707,7 +9715,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A262">
         <v>261</v>
       </c>
@@ -9728,7 +9736,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" ht="403.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A263">
         <v>262</v>
       </c>
@@ -9749,7 +9757,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A264">
         <v>263</v>
       </c>
@@ -9770,7 +9778,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="360" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A265">
         <v>264</v>
       </c>
@@ -9791,7 +9799,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A266">
         <v>265</v>
       </c>
@@ -9812,7 +9820,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A267">
         <v>266</v>
       </c>
@@ -9833,7 +9841,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="345.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A268">
         <v>267</v>
       </c>
@@ -9854,7 +9862,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A269">
         <v>268</v>
       </c>
@@ -9875,7 +9883,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A270">
         <v>269</v>
       </c>
@@ -9896,7 +9904,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A271">
         <v>270</v>
       </c>
@@ -9917,7 +9925,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A272">
         <v>271</v>
       </c>
@@ -9938,7 +9946,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A273">
         <v>272</v>
       </c>
@@ -9959,7 +9967,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A274">
         <v>273</v>
       </c>
@@ -9980,7 +9988,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A275">
         <v>274</v>
       </c>
@@ -10001,7 +10009,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A276">
         <v>275</v>
       </c>
@@ -10022,7 +10030,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="360" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="288" x14ac:dyDescent="0.55000000000000004">
       <c r="A277">
         <v>276</v>
       </c>
@@ -10043,7 +10051,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" ht="360" x14ac:dyDescent="0.55000000000000004">
       <c r="A278">
         <v>277</v>
       </c>
@@ -10064,7 +10072,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A279">
         <v>278</v>
       </c>
@@ -10085,7 +10093,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" ht="331.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A280">
         <v>279</v>
       </c>
@@ -10106,7 +10114,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A281">
         <v>280</v>
       </c>
@@ -10127,7 +10135,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A282">
         <v>281</v>
       </c>
@@ -10148,7 +10156,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A283">
         <v>282</v>
       </c>
@@ -10169,7 +10177,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" ht="230.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A284">
         <v>283</v>
       </c>
@@ -10190,7 +10198,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A285">
         <v>284</v>
       </c>
@@ -10211,7 +10219,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" ht="331.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A286">
         <v>285</v>
       </c>
@@ -10232,7 +10240,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A287">
         <v>286</v>
       </c>
@@ -10253,7 +10261,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="A288">
         <v>287</v>
       </c>
@@ -10274,7 +10282,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="405" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="316.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A289">
         <v>288</v>
       </c>
@@ -10295,7 +10303,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" ht="259.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A290">
         <v>289</v>
       </c>
@@ -10316,7 +10324,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A291">
         <v>290</v>
       </c>
@@ -10337,7 +10345,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A292">
         <v>291</v>
       </c>
@@ -10358,7 +10366,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A293">
         <v>292</v>
       </c>
@@ -10379,7 +10387,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A294">
         <v>293</v>
       </c>
@@ -10400,7 +10408,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A295">
         <v>294</v>
       </c>
@@ -10421,7 +10429,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A296">
         <v>295</v>
       </c>
@@ -10442,7 +10450,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A297">
         <v>296</v>
       </c>
@@ -10463,7 +10471,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A298">
         <v>297</v>
       </c>
@@ -10484,7 +10492,7 @@
         <v>Positive</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A299">
         <v>298</v>
       </c>
@@ -10505,7 +10513,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A300">
         <v>299</v>
       </c>
@@ -10526,7 +10534,7 @@
         <v>Negative</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" ht="388.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A301">
         <v>300</v>
       </c>
